--- a/Data/Preprocessed_data/Shop.xlsx
+++ b/Data/Preprocessed_data/Shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,214 @@
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>S041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Long Hưng TechZone</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>S042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Di Động Việt Store - AAR</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>S043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Futureworld - Apple Authorised Reseller</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>S044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Viettel Store - AAR</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>S045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hệ Thống Shopdunk</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>S046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ringke Store</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>S047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SAMSUNG MALL</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>S048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Điện Thoại Giá Kho Store</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>S049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hnammobile.com</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>S050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SAMFAN</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>S051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LUOWAN</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>S052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Anker</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>S053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>UAG MOBILE PHONE CASE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>S054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HAPPY PHONE MALL</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Preprocessed_data/Shop.xlsx
+++ b/Data/Preprocessed_data/Shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1208,19 @@
         <v>4.9</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>S055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Samsung Shop</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Preprocessed_data/Shop.xlsx
+++ b/Data/Preprocessed_data/Shop.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrsnguyen-my.sharepoint.com/personal/xuannguyen_mrsnguyen_onmicrosoft_com/Documents/DUE/KLTN/KhoaLuanGr3-Code/Data/Preprocessed_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85A7926-3044-431C-88F1-F53414A4E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>ShopID</t>
   </si>
@@ -28,323 +50,368 @@
     <t>S001</t>
   </si>
   <si>
+    <t>Tiki Trading</t>
+  </si>
+  <si>
     <t>S002</t>
   </si>
   <si>
+    <t>HAPPY PHONE</t>
+  </si>
+  <si>
     <t>S003</t>
   </si>
   <si>
+    <t>Antam Trading</t>
+  </si>
+  <si>
     <t>S004</t>
   </si>
   <si>
+    <t xml:space="preserve">MT Smart Official Store </t>
+  </si>
+  <si>
     <t>S005</t>
   </si>
   <si>
+    <t>Nguyễn Kim Official</t>
+  </si>
+  <si>
     <t>S006</t>
   </si>
   <si>
+    <t>GIA DỤNG VIỆT</t>
+  </si>
+  <si>
     <t>S007</t>
   </si>
   <si>
+    <t>Apple Flagship Store</t>
+  </si>
+  <si>
     <t>S008</t>
   </si>
   <si>
+    <t>SAMSUNG Flagship Store</t>
+  </si>
+  <si>
     <t>S009</t>
   </si>
   <si>
+    <t>Samsung Store</t>
+  </si>
+  <si>
     <t>S010</t>
   </si>
   <si>
+    <t>NGUYỄN KIM</t>
+  </si>
+  <si>
     <t>S011</t>
   </si>
   <si>
+    <t>FPT SHOP</t>
+  </si>
+  <si>
     <t>S012</t>
   </si>
   <si>
+    <t>SAMSUNG PREMIUM STORE</t>
+  </si>
+  <si>
     <t>S013</t>
   </si>
   <si>
+    <t>PHONG VU Official Store</t>
+  </si>
+  <si>
     <t>S014</t>
   </si>
   <si>
+    <t>Tablet Plaza Store</t>
+  </si>
+  <si>
     <t>S015</t>
   </si>
   <si>
+    <t>Nam Á Store - SPS</t>
+  </si>
+  <si>
     <t>S016</t>
   </si>
   <si>
+    <t>GDV GIA DỤNG VIỆT</t>
+  </si>
+  <si>
     <t>S017</t>
   </si>
   <si>
+    <t>Samsung Authorised Store</t>
+  </si>
+  <si>
     <t>S018</t>
   </si>
   <si>
+    <t>TCMOBEO</t>
+  </si>
+  <si>
     <t>S019</t>
   </si>
   <si>
+    <t>Đại Phát shop</t>
+  </si>
+  <si>
     <t>S020</t>
   </si>
   <si>
+    <t>FUN OFFICIAL.</t>
+  </si>
+  <si>
     <t>S021</t>
   </si>
   <si>
+    <t>DiDongStore.com</t>
+  </si>
+  <si>
     <t>S022</t>
   </si>
   <si>
+    <t>SHOPSAMSUNG.VN LINHPHUKIEN.VN</t>
+  </si>
+  <si>
     <t>S023</t>
   </si>
   <si>
+    <t>ShopeeID_1039678074</t>
+  </si>
+  <si>
     <t>S024</t>
   </si>
   <si>
+    <t>IIlumidzShop</t>
+  </si>
+  <si>
     <t>S025</t>
   </si>
   <si>
+    <t>DMobile-HCM</t>
+  </si>
+  <si>
     <t>S026</t>
   </si>
   <si>
+    <t>Điện Thoại Giá Kho Official</t>
+  </si>
+  <si>
     <t>S027</t>
   </si>
   <si>
+    <t>Tamanmobile</t>
+  </si>
+  <si>
     <t>S028</t>
   </si>
   <si>
+    <t>SAMSUNG OFFICIAL STORE</t>
+  </si>
+  <si>
     <t>S029</t>
   </si>
   <si>
     <t>S030</t>
   </si>
   <si>
+    <t>GalaxyShopVN</t>
+  </si>
+  <si>
     <t>S031</t>
   </si>
   <si>
+    <t>Hnam Mobile</t>
+  </si>
+  <si>
     <t>S032</t>
   </si>
   <si>
+    <t>CuBeoShop</t>
+  </si>
+  <si>
     <t>S033</t>
   </si>
   <si>
+    <t>PREMIUM STORE ONLINE</t>
+  </si>
+  <si>
     <t>S034</t>
   </si>
   <si>
+    <t>ShopeeID_297083882</t>
+  </si>
+  <si>
     <t>S035</t>
   </si>
   <si>
+    <t>TechGearVN</t>
+  </si>
+  <si>
     <t>S036</t>
   </si>
   <si>
     <t>S037</t>
   </si>
   <si>
+    <t>ShopDunk Official Store</t>
+  </si>
+  <si>
     <t>S038</t>
   </si>
   <si>
+    <t>Viettel Store - AAR</t>
+  </si>
+  <si>
     <t>S039</t>
   </si>
   <si>
+    <t>Minh Tuấn Mobile Official</t>
+  </si>
+  <si>
     <t>S040</t>
   </si>
   <si>
+    <t>Futureworld</t>
+  </si>
+  <si>
     <t>S041</t>
   </si>
   <si>
+    <t>Long Hưng TechZone</t>
+  </si>
+  <si>
     <t>S042</t>
   </si>
   <si>
+    <t>Di Động Việt Store - AAR</t>
+  </si>
+  <si>
     <t>S043</t>
   </si>
   <si>
+    <t>Futureworld - Apple Authorised Reseller</t>
+  </si>
+  <si>
     <t>S044</t>
   </si>
   <si>
     <t>S045</t>
   </si>
   <si>
+    <t>Hệ Thống Shopdunk</t>
+  </si>
+  <si>
     <t>S046</t>
   </si>
   <si>
+    <t>Ringke Store</t>
+  </si>
+  <si>
     <t>S047</t>
   </si>
   <si>
+    <t>SAMSUNG MALL</t>
+  </si>
+  <si>
     <t>S048</t>
   </si>
   <si>
+    <t>Điện Thoại Giá Kho Store</t>
+  </si>
+  <si>
     <t>S049</t>
   </si>
   <si>
+    <t>Hnammobile.com</t>
+  </si>
+  <si>
     <t>S050</t>
   </si>
   <si>
+    <t>SAMFAN</t>
+  </si>
+  <si>
     <t>S051</t>
   </si>
   <si>
+    <t>LUOWAN</t>
+  </si>
+  <si>
     <t>S052</t>
   </si>
   <si>
+    <t>Anker</t>
+  </si>
+  <si>
     <t>S053</t>
   </si>
   <si>
+    <t>UAG MOBILE PHONE CASE</t>
+  </si>
+  <si>
     <t>S054</t>
   </si>
   <si>
+    <t>HAPPY PHONE MALL</t>
+  </si>
+  <si>
     <t>S055</t>
   </si>
   <si>
-    <t>Tiki Trading</t>
-  </si>
-  <si>
-    <t>HAPPY PHONE</t>
-  </si>
-  <si>
-    <t>Antam Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT Smart Official Store </t>
-  </si>
-  <si>
-    <t>Nguyễn Kim Official</t>
-  </si>
-  <si>
-    <t>GIA DỤNG VIỆT</t>
-  </si>
-  <si>
-    <t>Apple Flagship Store</t>
-  </si>
-  <si>
-    <t>SAMSUNG Flagship Store</t>
-  </si>
-  <si>
-    <t>Samsung Store</t>
-  </si>
-  <si>
-    <t>NGUYỄN KIM</t>
-  </si>
-  <si>
-    <t>FPT SHOP</t>
-  </si>
-  <si>
-    <t>SAMSUNG PREMIUM STORE</t>
-  </si>
-  <si>
-    <t>PHONG VU Official Store</t>
-  </si>
-  <si>
-    <t>Tablet Plaza Store</t>
-  </si>
-  <si>
-    <t>Nam Á Store - SPS</t>
-  </si>
-  <si>
-    <t>GDV GIA DỤNG VIỆT</t>
-  </si>
-  <si>
-    <t>Samsung Authorised Store</t>
-  </si>
-  <si>
-    <t>TCMOBEO</t>
-  </si>
-  <si>
-    <t>Đại Phát shop</t>
-  </si>
-  <si>
-    <t>FUN OFFICIAL.</t>
-  </si>
-  <si>
-    <t>DiDongStore.com</t>
-  </si>
-  <si>
-    <t>SHOPSAMSUNG.VN LINHPHUKIEN.VN</t>
-  </si>
-  <si>
-    <t>IIlumidzShop</t>
-  </si>
-  <si>
-    <t>DMobile-HCM</t>
-  </si>
-  <si>
-    <t>Điện Thoại Giá Kho Official</t>
-  </si>
-  <si>
-    <t>Tamanmobile</t>
-  </si>
-  <si>
-    <t>SAMSUNG OFFICIAL STORE</t>
-  </si>
-  <si>
-    <t>GalaxyShopVN</t>
-  </si>
-  <si>
-    <t>Hnam Mobile</t>
-  </si>
-  <si>
-    <t>CuBeoShop</t>
-  </si>
-  <si>
-    <t>PREMIUM STORE ONLINE</t>
-  </si>
-  <si>
-    <t>TechGearVN</t>
-  </si>
-  <si>
-    <t>ShopDunk Official Store</t>
-  </si>
-  <si>
-    <t>Viettel Store - AAR</t>
-  </si>
-  <si>
-    <t>Minh Tuấn Mobile Official</t>
-  </si>
-  <si>
-    <t>Futureworld</t>
-  </si>
-  <si>
-    <t>Long Hưng TechZone</t>
-  </si>
-  <si>
-    <t>Di Động Việt Store - AAR</t>
-  </si>
-  <si>
-    <t>Futureworld - Apple Authorised Reseller</t>
-  </si>
-  <si>
-    <t>Hệ Thống Shopdunk</t>
-  </si>
-  <si>
-    <t>Ringke Store</t>
-  </si>
-  <si>
-    <t>SAMSUNG MALL</t>
-  </si>
-  <si>
-    <t>Điện Thoại Giá Kho Store</t>
-  </si>
-  <si>
-    <t>Hnammobile.com</t>
-  </si>
-  <si>
-    <t>SAMFAN</t>
-  </si>
-  <si>
-    <t>LUOWAN</t>
-  </si>
-  <si>
-    <t>Anker</t>
-  </si>
-  <si>
-    <t>UAG MOBILE PHONE CASE</t>
-  </si>
-  <si>
-    <t>HAPPY PHONE MALL</t>
-  </si>
-  <si>
     <t>Samsung Shop</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S.Zone Authorised Store</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>Mini Shop Official</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>Phú Mobile TN</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>TB Mobile</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>ShopeeID_645232269</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>didongso1.com</t>
+  </si>
+  <si>
+    <t>Omi Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,13 +474,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -451,7 +526,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -485,6 +560,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -519,9 +595,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,14 +771,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,531 +794,904 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C38">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C39">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C40">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>1039678074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C41">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>603809751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>297083882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
       </c>
       <c r="C42">
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>4.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>4.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>4.7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>4.8</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>104</v>
-      </c>
-      <c r="C53">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>105</v>
       </c>
       <c r="C54">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62">
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5290737-55c0-40f8-bec4-0520689bb3a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="67f3fcc2-025c-4731-a5d1-64c6481b5afb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6F11C8DDBA5C44D9B4D4F96F1F432B5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="993e179fc8e15b53de680d6f103cf1fc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5290737-55c0-40f8-bec4-0520689bb3a2" xmlns:ns3="67f3fcc2-025c-4731-a5d1-64c6481b5afb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ba472efbdee4382900ad71bf0ccc0e9" ns2:_="" ns3:_="">
+    <xsd:import namespace="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
+    <xsd:import namespace="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5290737-55c0-40f8-bec4-0520689bb3a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="02289d5b-e89e-4341-8e8f-596a39548661" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="67f3fcc2-025c-4731-a5d1-64c6481b5afb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5b6ab92e-8cf3-45bc-834d-5243bca4e7d6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="67f3fcc2-025c-4731-a5d1-64c6481b5afb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB13069-760E-4480-827A-D2A484D337C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
+    <ds:schemaRef ds:uri="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EBEE55-1263-4055-AC82-8179E1746C5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4669D-239F-46D1-8C58-2F25F527CD3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
+    <ds:schemaRef ds:uri="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Preprocessed_data/Shop.xlsx
+++ b/Data/Preprocessed_data/Shop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrsnguyen-my.sharepoint.com/personal/xuannguyen_mrsnguyen_onmicrosoft_com/Documents/DUE/KLTN/KhoaLuanGr3-Code/Data/Preprocessed_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrsnguyen.sharepoint.com/sites/KLTN_K29-Gr3/Shared Documents/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85A7926-3044-431C-88F1-F53414A4E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_A6FAE7A06D7963D0B184E3E6D41A2AE158385551" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8857F1-B795-4EFC-9A0F-C69268F3AE77}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>ShopID</t>
   </si>
@@ -218,6 +218,9 @@
     <t>S029</t>
   </si>
   <si>
+    <t>Omi Mobile</t>
+  </si>
+  <si>
     <t>S030</t>
   </si>
   <si>
@@ -254,9 +257,6 @@
     <t>TechGearVN</t>
   </si>
   <si>
-    <t>S036</t>
-  </si>
-  <si>
     <t>S037</t>
   </si>
   <si>
@@ -402,16 +402,13 @@
   </si>
   <si>
     <t>didongso1.com</t>
-  </si>
-  <si>
-    <t>Omi Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,18 +769,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -805,7 +802,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -816,7 +813,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -827,7 +824,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -838,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -849,7 +846,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -860,7 +857,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -868,10 +865,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -882,7 +879,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -893,7 +890,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -904,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -915,7 +912,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -926,7 +923,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -937,7 +934,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -945,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -956,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -967,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -975,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -986,7 +983,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -997,7 +994,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1019,7 +1016,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1093,348 +1090,337 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>4.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>4.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45">
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>4.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
         <v>4.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" t="s">
         <v>121</v>
       </c>
-      <c r="C62">
+      <c r="C61">
         <v>4.8</v>
       </c>
     </row>
@@ -1455,15 +1441,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6F11C8DDBA5C44D9B4D4F96F1F432B5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="993e179fc8e15b53de680d6f103cf1fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5290737-55c0-40f8-bec4-0520689bb3a2" xmlns:ns3="67f3fcc2-025c-4731-a5d1-64c6481b5afb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ba472efbdee4382900ad71bf0ccc0e9" ns2:_="" ns3:_="">
     <xsd:import namespace="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
@@ -1658,40 +1635,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB13069-760E-4480-827A-D2A484D337C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
-    <ds:schemaRef ds:uri="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB13069-760E-4480-827A-D2A484D337C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EBEE55-1263-4055-AC82-8179E1746C5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4669D-239F-46D1-8C58-2F25F527CD3C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4669D-239F-46D1-8C58-2F25F527CD3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
-    <ds:schemaRef ds:uri="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EBEE55-1263-4055-AC82-8179E1746C5E}"/>
 </file>
--- a/Data/Preprocessed_data/Shop.xlsx
+++ b/Data/Preprocessed_data/Shop.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrsnguyen.sharepoint.com/sites/KLTN_K29-Gr3/Shared Documents/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_A6FAE7A06D7963D0B184E3E6D41A2AE158385551" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA8857F1-B795-4EFC-9A0F-C69268F3AE77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>ShopID</t>
   </si>
@@ -50,364 +28,376 @@
     <t>S001</t>
   </si>
   <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S041</t>
+  </si>
+  <si>
+    <t>S042</t>
+  </si>
+  <si>
+    <t>S043</t>
+  </si>
+  <si>
+    <t>S044</t>
+  </si>
+  <si>
+    <t>S045</t>
+  </si>
+  <si>
+    <t>S046</t>
+  </si>
+  <si>
+    <t>S047</t>
+  </si>
+  <si>
+    <t>S048</t>
+  </si>
+  <si>
+    <t>S049</t>
+  </si>
+  <si>
+    <t>S050</t>
+  </si>
+  <si>
+    <t>S051</t>
+  </si>
+  <si>
+    <t>S052</t>
+  </si>
+  <si>
+    <t>S053</t>
+  </si>
+  <si>
+    <t>S054</t>
+  </si>
+  <si>
+    <t>S055</t>
+  </si>
+  <si>
+    <t>S056</t>
+  </si>
+  <si>
+    <t>S057</t>
+  </si>
+  <si>
+    <t>S058</t>
+  </si>
+  <si>
+    <t>S059</t>
+  </si>
+  <si>
+    <t>S060</t>
+  </si>
+  <si>
+    <t>S061</t>
+  </si>
+  <si>
+    <t>S062</t>
+  </si>
+  <si>
+    <t>S063</t>
+  </si>
+  <si>
     <t>Tiki Trading</t>
   </si>
   <si>
-    <t>S002</t>
-  </si>
-  <si>
     <t>HAPPY PHONE</t>
   </si>
   <si>
-    <t>S003</t>
-  </si>
-  <si>
     <t>Antam Trading</t>
   </si>
   <si>
-    <t>S004</t>
-  </si>
-  <si>
     <t xml:space="preserve">MT Smart Official Store </t>
   </si>
   <si>
-    <t>S005</t>
-  </si>
-  <si>
     <t>Nguyễn Kim Official</t>
   </si>
   <si>
-    <t>S006</t>
-  </si>
-  <si>
     <t>GIA DỤNG VIỆT</t>
   </si>
   <si>
-    <t>S007</t>
-  </si>
-  <si>
     <t>Apple Flagship Store</t>
   </si>
   <si>
-    <t>S008</t>
-  </si>
-  <si>
     <t>SAMSUNG Flagship Store</t>
   </si>
   <si>
-    <t>S009</t>
-  </si>
-  <si>
     <t>Samsung Store</t>
   </si>
   <si>
-    <t>S010</t>
-  </si>
-  <si>
     <t>NGUYỄN KIM</t>
   </si>
   <si>
-    <t>S011</t>
-  </si>
-  <si>
     <t>FPT SHOP</t>
   </si>
   <si>
-    <t>S012</t>
-  </si>
-  <si>
     <t>SAMSUNG PREMIUM STORE</t>
   </si>
   <si>
-    <t>S013</t>
-  </si>
-  <si>
     <t>PHONG VU Official Store</t>
   </si>
   <si>
-    <t>S014</t>
-  </si>
-  <si>
     <t>Tablet Plaza Store</t>
   </si>
   <si>
-    <t>S015</t>
-  </si>
-  <si>
     <t>Nam Á Store - SPS</t>
   </si>
   <si>
-    <t>S016</t>
-  </si>
-  <si>
     <t>GDV GIA DỤNG VIỆT</t>
   </si>
   <si>
-    <t>S017</t>
-  </si>
-  <si>
     <t>Samsung Authorised Store</t>
   </si>
   <si>
-    <t>S018</t>
-  </si>
-  <si>
     <t>TCMOBEO</t>
   </si>
   <si>
-    <t>S019</t>
-  </si>
-  <si>
     <t>Đại Phát shop</t>
   </si>
   <si>
-    <t>S020</t>
-  </si>
-  <si>
     <t>FUN OFFICIAL.</t>
   </si>
   <si>
-    <t>S021</t>
-  </si>
-  <si>
     <t>DiDongStore.com</t>
   </si>
   <si>
-    <t>S022</t>
-  </si>
-  <si>
     <t>SHOPSAMSUNG.VN LINHPHUKIEN.VN</t>
   </si>
   <si>
-    <t>S023</t>
-  </si>
-  <si>
     <t>ShopeeID_1039678074</t>
   </si>
   <si>
-    <t>S024</t>
-  </si>
-  <si>
     <t>IIlumidzShop</t>
   </si>
   <si>
-    <t>S025</t>
-  </si>
-  <si>
     <t>DMobile-HCM</t>
   </si>
   <si>
-    <t>S026</t>
-  </si>
-  <si>
     <t>Điện Thoại Giá Kho Official</t>
   </si>
   <si>
-    <t>S027</t>
-  </si>
-  <si>
     <t>Tamanmobile</t>
   </si>
   <si>
-    <t>S028</t>
-  </si>
-  <si>
     <t>SAMSUNG OFFICIAL STORE</t>
   </si>
   <si>
-    <t>S029</t>
-  </si>
-  <si>
     <t>Omi Mobile</t>
   </si>
   <si>
-    <t>S030</t>
-  </si>
-  <si>
     <t>GalaxyShopVN</t>
   </si>
   <si>
-    <t>S031</t>
-  </si>
-  <si>
     <t>Hnam Mobile</t>
   </si>
   <si>
-    <t>S032</t>
-  </si>
-  <si>
     <t>CuBeoShop</t>
   </si>
   <si>
-    <t>S033</t>
-  </si>
-  <si>
     <t>PREMIUM STORE ONLINE</t>
   </si>
   <si>
-    <t>S034</t>
-  </si>
-  <si>
     <t>ShopeeID_297083882</t>
   </si>
   <si>
-    <t>S035</t>
-  </si>
-  <si>
     <t>TechGearVN</t>
   </si>
   <si>
-    <t>S037</t>
-  </si>
-  <si>
     <t>ShopDunk Official Store</t>
   </si>
   <si>
-    <t>S038</t>
-  </si>
-  <si>
     <t>Viettel Store - AAR</t>
   </si>
   <si>
-    <t>S039</t>
-  </si>
-  <si>
     <t>Minh Tuấn Mobile Official</t>
   </si>
   <si>
-    <t>S040</t>
-  </si>
-  <si>
     <t>Futureworld</t>
   </si>
   <si>
-    <t>S041</t>
-  </si>
-  <si>
     <t>Long Hưng TechZone</t>
   </si>
   <si>
-    <t>S042</t>
-  </si>
-  <si>
     <t>Di Động Việt Store - AAR</t>
   </si>
   <si>
-    <t>S043</t>
-  </si>
-  <si>
     <t>Futureworld - Apple Authorised Reseller</t>
   </si>
   <si>
-    <t>S044</t>
-  </si>
-  <si>
-    <t>S045</t>
-  </si>
-  <si>
     <t>Hệ Thống Shopdunk</t>
   </si>
   <si>
-    <t>S046</t>
-  </si>
-  <si>
     <t>Ringke Store</t>
   </si>
   <si>
-    <t>S047</t>
-  </si>
-  <si>
     <t>SAMSUNG MALL</t>
   </si>
   <si>
-    <t>S048</t>
-  </si>
-  <si>
     <t>Điện Thoại Giá Kho Store</t>
   </si>
   <si>
-    <t>S049</t>
-  </si>
-  <si>
     <t>Hnammobile.com</t>
   </si>
   <si>
-    <t>S050</t>
-  </si>
-  <si>
     <t>SAMFAN</t>
   </si>
   <si>
-    <t>S051</t>
-  </si>
-  <si>
     <t>LUOWAN</t>
   </si>
   <si>
-    <t>S052</t>
-  </si>
-  <si>
     <t>Anker</t>
   </si>
   <si>
-    <t>S053</t>
-  </si>
-  <si>
     <t>UAG MOBILE PHONE CASE</t>
   </si>
   <si>
-    <t>S054</t>
-  </si>
-  <si>
     <t>HAPPY PHONE MALL</t>
   </si>
   <si>
-    <t>S055</t>
-  </si>
-  <si>
     <t>Samsung Shop</t>
   </si>
   <si>
-    <t>S056</t>
-  </si>
-  <si>
     <t>S.Zone Authorised Store</t>
   </si>
   <si>
-    <t>S057</t>
-  </si>
-  <si>
     <t>Mini Shop Official</t>
   </si>
   <si>
-    <t>S058</t>
-  </si>
-  <si>
     <t>Phú Mobile TN</t>
   </si>
   <si>
-    <t>S059</t>
-  </si>
-  <si>
     <t>TB Mobile</t>
   </si>
   <si>
-    <t>S060</t>
-  </si>
-  <si>
     <t>ShopeeID_645232269</t>
   </si>
   <si>
-    <t>S061</t>
-  </si>
-  <si>
     <t>didongso1.com</t>
+  </si>
+  <si>
+    <t>TẤN HẢO MOBILE</t>
+  </si>
+  <si>
+    <t>ShopeeID_645499489</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -471,21 +461,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -523,7 +505,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -557,7 +539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -592,10 +573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,17 +748,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -796,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>4.7</v>
@@ -804,10 +779,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>4.8</v>
@@ -815,10 +790,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>4.5</v>
@@ -826,10 +801,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -837,10 +812,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>4.8</v>
@@ -848,21 +823,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -870,10 +845,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>4.5</v>
@@ -881,10 +856,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>4.8</v>
@@ -892,10 +867,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -903,10 +878,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>4.8</v>
@@ -914,10 +889,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>4.8</v>
@@ -925,10 +900,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>4.8</v>
@@ -936,18 +911,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -955,10 +930,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -966,40 +941,40 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C19">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>4.7</v>
@@ -1007,10 +982,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>4.7</v>
@@ -1018,10 +993,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>4.7</v>
@@ -1029,18 +1004,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1048,10 +1023,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1059,10 +1034,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1070,54 +1045,54 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C29">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C31">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>4.8</v>
@@ -1125,37 +1100,37 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C33">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>4.8</v>
@@ -1163,54 +1138,54 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C38">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C39">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C40">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>4.7</v>
@@ -1218,10 +1193,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <v>4.8</v>
@@ -1229,21 +1204,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C43">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1251,10 +1226,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C45">
         <v>4.8</v>
@@ -1262,10 +1237,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C46">
         <v>4.8</v>
@@ -1273,10 +1248,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C47">
         <v>4.7</v>
@@ -1284,21 +1259,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C48">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1306,21 +1281,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>4.8</v>
@@ -1328,62 +1303,62 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C52">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C53">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C54">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C56">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1391,267 +1366,56 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C61">
         <v>4.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5290737-55c0-40f8-bec4-0520689bb3a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="67f3fcc2-025c-4731-a5d1-64c6481b5afb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6F11C8DDBA5C44D9B4D4F96F1F432B5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="993e179fc8e15b53de680d6f103cf1fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5290737-55c0-40f8-bec4-0520689bb3a2" xmlns:ns3="67f3fcc2-025c-4731-a5d1-64c6481b5afb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ba472efbdee4382900ad71bf0ccc0e9" ns2:_="" ns3:_="">
-    <xsd:import namespace="b5290737-55c0-40f8-bec4-0520689bb3a2"/>
-    <xsd:import namespace="67f3fcc2-025c-4731-a5d1-64c6481b5afb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5290737-55c0-40f8-bec4-0520689bb3a2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="02289d5b-e89e-4341-8e8f-596a39548661" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="67f3fcc2-025c-4731-a5d1-64c6481b5afb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5b6ab92e-8cf3-45bc-834d-5243bca4e7d6}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="67f3fcc2-025c-4731-a5d1-64c6481b5afb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB13069-760E-4480-827A-D2A484D337C0}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81A4669D-239F-46D1-8C58-2F25F527CD3C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EBEE55-1263-4055-AC82-8179E1746C5E}"/>
 </file>